--- a/DOM_Banner/output/dept0713/Rachna Shroff_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Rachna Shroff_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology, University of California Davis Health, Sacramento, California, USA; Hôpital Saint-Antoine, Paris, France; Karolinska Institutet, Karolinska University Hospital, Stockholm, Sweden; University of Utah, Salt Lake City, Utah, USA; University of Colorado, Aurora, Colorado, USA; Mayo Clinic College of Medicine and Science, Rochester, Minnesota, USA; Rutgers University–New Jersey Medical School, Newark, New Jersey, USA; Vagelos College of Physicians and Surgeons, Columbia University, New York, New York, USA; University of Toronto, Toronto, Ontario, Canada; University of Arizona, Tucson, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA; Yale School of Medicine, New Haven, Connecticut, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295048810</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>AASLD practice guidance on primary sclerosing cholangitis and cholangiocarcinoma</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-10-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Hepatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hep.32771</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36083140</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hep.32771</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medical Oncology, Dana-Farber Cancer Institute, Harvard Medical School, Boston, MA; Université Paris-Saclay, Institut Gustave Roussy, Inserm U981, Biomarqueurs Prédictifs et Nouvelles Stratégies Thérapeutiques en Oncologie, Villejuif, France; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; Division of Hematology/Oncology, Mayo Clinic, Jacksonville; Duke University School of Medicine, Durham; Division of Oncology, Department of Medicine, Stanford University School of Medicine, Palo Alto; UCSF Helen Diller Family Comprehensive Cancer Center, San Francisco; University of Arizona Cancer Center, University of Arizona, Tucson, USA; Hospital Israelita Albert Einstein, São Paulo, Brazil; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; University of Arizona Cancer Center, University of Arizona, Tucson, USA; Department of Laboratory Medicine and Pathology, University of Washington, Seattle; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; University of Chicago Medicine, Chicago; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, USA; Université Paris-Saclay, Institut Gustave Roussy, Inserm U981, Biomarqueurs Prédictifs et Nouvelles Stratégies Thérapeutiques en Oncologie, Villejuif, France; Université Paris-Saclay, Institut Gustave Roussy, Inserm U981, Biomarqueurs Prédictifs et Nouvelles Stratégies Thérapeutiques en Oncologie, Villejuif, France; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; I-Mab Biopharma, Shanghai, China; Jiahui International Cancer Center, Jihaui Health, Shanghai; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston; Department of Medicine, Washington University, St. Louis; Division of Hematology/Oncology, Mayo Clinic, Scottsdale; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; Department of Medical Affairs, Guardant Health, Redwood City, USA; UCSF Helen Diller Family Comprehensive Cancer Center, San Francisco; Division of Hematology/Oncology, Mayo Clinic, Jacksonville; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston; Department of Medicine, Mass General Cancer Center, Harvard Medical School, Boston</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295141431</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The clinical landscape of cell-free DNA alterations in 1671 patients with advanced biliary tract cancer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Annals of Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2022.09.150</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36089135</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2022.09.150</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Yong Loo Lin School of Medicine, National University of Singapore, Singapore; Yong Loo Lin School of Medicine, National University of Singapore, Singapore; Yong Loo Lin School of Medicine, National University of Singapore, Singapore; Department of Oncology, Montefiore Medical Center, Albert Einstein College of Medicine, Bronx, NY, USA; Department of Oncology, Montefiore Medical Center, Albert Einstein College of Medicine, Bronx, NY, USA; Department of Oncology, Montefiore Medical Center, Albert Einstein College of Medicine, Bronx, NY, USA; Sharett Institute of Oncology, Hadassah Medical Center and the Faculty of Medicine, The Hebrew University, Jerusalem, Israel; Tel-Aviv Sourasky Medical Center and Sackler Faculty of Medicine, Tel Aviv University, Tel-Aviv, Israel; Hematology Division, Chaim Sheba Medical Center, Ramat-Gan, Israel; Sackler Faculty of Medicine, Tel Aviv University, Tel-Aviv, Israel; Hematology Unit, Bnai Zion Medical Center, Haifa, Israel; The Ruth and Bruce Rappaport Faculty of Medicine, Technion, Haifa, Israel; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, AZ, USA; Department of Medicine, National University Health System, Singapore; Department of Radiation Oncology, National University Cancer Institute, Singapore, Singapore; Cancer Science Institute of Singapore, National University of Singapore, Singapore; Division of Infectious Diseases, Department of Medicine, National University Health System, Singapore; National University Cancer Institute, Singapore, Singapore; Synthetic Biology for Clinical and Technological Innovation, National University of Singapore, Singapore; Department of Medicine, Yong Loo Lin School of Medicine, National University of Singapore, Singapore; Department of Radiation Oncology, National University Cancer Institute, Singapore, Singapore; Cancer and Stem Cell Biology Program, Duke-NUS Medical School, Singapore; Department of Haematology-Oncology, National University Cancer Institute, Singapore, Singapore; Department of Medicine, Yong Loo Lin School of Medicine, National University of Singapore, Singapore; Singapore Gastric Cancer Consortium, Singapore; Department of Haematology-Oncology, National University Cancer Institute, Singapore, Singapore</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281707870</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Booster doses of COVID-19 vaccines for patients with haematological and solid cancer: a systematic review and individual patient data meta-analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>European Journal of Cancer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ejca.2022.05.029</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35753213</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ejca.2022.05.029</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA; The Oncology Institute of Hope and Innovation, Tucson, AZ, USA; Department of Medicine, The University of Arizona School of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3159292136</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cholangiocarcinoma: a review of the literature and future directions in therapy</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Hepatobiliary surgery and nutrition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>AME Publishing Company</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36016753</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-396</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Mayo Clinic, Jacksonville, FL.; Tempus Labs Inc, Chicago, IL.; Tempus Labs Inc, Chicago, IL.; Johns Hopkins University, Baltimore, MD.; Johns Hopkins University, Baltimore, MD.; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ.; The University of California, San Francisco Medical Center, San Francisco, CA.; USC Norris Comprehensive Cancer Center, Los Angeles, CA.; Tempus Labs Inc, Chicago, IL.; Tempus Labs Inc, Chicago, IL.; Emory University School of Medicine, Winship Cancer Institute, Atlanta, GA.; Johns Hopkins University, Baltimore, MD.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282945607</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Clinical, Genomic, and Transcriptomic Data Profiling of Biliary Tract Cancer Reveals Subtype-Specific Immune Signatures</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>JCO Precision Oncology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.21.00510</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35675577</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.21.00510</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Division of Hematology and Oncology, Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona.; 3Division of Hematology and Oncology, Department of Medicine, Baylor College of Medicine, Houston, Texas.; 4Department of Biostatistics, University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 5Division of Diagnostic Imaging, Department of Abdominal Imaging, University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 6Department of Diagnostic Radiology, University of Mississippi, Oxford, Mississippi.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, Texas.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225673512</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Clinical Cancer Research</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.ccr-21-3548</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35312753</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.ccr-21-3548</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285491569</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Precision Medicine in Biliary Tract Cancer</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-08-20</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02576</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35839428</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02576</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Surgical Oncology, Emory University, Winship Cancer Institute, Atlanta, GA, USA; Division of Hematology and Oncology, Department of GI Medical Oncology, University of Arizona Cancer Center, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3047067645</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Novel biomarkers and the future of targeted therapies in cholangiocarcinoma: a narrative review</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Hepatobiliary surgery and nutrition</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>AME Publishing Company</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-475</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35464290</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.21037/hbsn-20-475</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Division of Cancer Epidemiology and Genetics, National Cancer Institute, Bethesda, USA; Oncology Biometrics, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Medical Affairs Epidemiology and Real-World Evidence, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Global Medical Affairs, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309321996</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Epidemiologic patterns of biliary tract cancer in the United States: 2001–2015</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>BMC Cancer</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12885-022-10286-z</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36384474</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12885-022-10286-z</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,44 +1230,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Morten Lapin, Helen J. Huang, Sharmeen Chagani, Milind Javle, Rachna T. Shroff, Shubham Pant, Mohamed A. Gouda, Anjali Raina, Kiran Madwani, Veronica R. Holley, S. Greg Call, Derek Dustin, Richard B. Lanman, Funda Meric‐Bernstam, Victoria M. Raymond, Lawrence N. Kwong, Filip Janků</t>
+          <t>Morten Lapin, Helen J. Huang, Sharmeen Chagani, Milind Javle, Rachna T. Shroff, Shubham Pant, Mohamed A. Gouda, Anjali Raina, Kiran Madwani, Veronica R. Holley, S. Greg Call, Derek Dustin, Richard B. Lanman, Funda Meric‐Bernstam, Victoria M. Raymond, Lawrence N. Kwong, Filip Jankú</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Hematology and Oncology, Stavanger University Hospital, Stavanger, Norway.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Translational Molecular Pathology, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX.; Division of Hematology/Oncology, University of Arizona Cancer Center, Tucson, AZ.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Guardant Health, Redwood City, CA.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.; Guardant Health, Redwood City, CA.; Department of Translational Molecular Pathology, The University of Texas MD Anderson Cancer Center, Houston, TX.; Department of Investigational Cancer Therapeutics, The University of Texas MD Anderson Cancer Center, Houston, TX.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213112989</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Monitoring of Dynamic Changes and Clonal Evolution in Circulating Tumor DNA From Patients With &lt;i&gt;IDH&lt;/i&gt;-Mutated Cholangiocarcinoma Treated With Isocitrate Dehydrogenase Inhibitors</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>JCO Precision Oncology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.21.00197</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35171660</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/po.21.00197</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>The University of Arizona Cancer Center; University of Arizona; Precision Epigenomics Inc, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; Honor Health Hospital, Scottsdale, USA; Dignity Health Chandler Regional Medical Center, Chandler, USA; The University of Arizona Cancer Center, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; Department of Pathology, College of Medicine, University of Arizona, Tucson, USA; Division of Hematology/Oncology, Department of Medicine, University of Arizona Caner Center, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA; Precision Epigenomics Inc, Tucson, USA; The University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213324266</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Liquid biopsy, using a novel DNA methylation signature, distinguishes pancreatic adenocarcinoma from benign pancreatic disease</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Clinical Epigenetics</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s13148-022-01246-2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35193708</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s13148-022-01246-2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Memorial Sloan Kettering Cancer Center, Weill Cornell Medical College, New York, NY;; Cliniques Universitaires St Luc, Brussels, Belgium;; Massachusetts General Hospital Cancer Center, Boston, MA;; The Christie NHS Foundation Trust, Manchester, United Kingdom;; Hospital Vall d’Hebron, Barcelona, Spain;; Seoul National University Hospital, Seoul, South Korea;; Ohio State University Comprehensive Cancer Center, Columbus, OH;; David Geffen School of Medicine at UCLA, Los Angeles, CA;; University of Arizona Cancer Center, Tucson, AZ;; QED Therapeutics, Inc., San Francisco, CA;; QED Therapeutics, Inc., San Francisco, CA;; QED Therapeutics, Inc., San Francisco, CA;; QED Therapeutics, Inc., San Francisco, CA;; MD Anderson Cancer Center, Houston, TX;</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281663782</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>PROOF 301: A multicenter, open-label, randomized, phase 3 trial of infigratinib versus gemcitabine plus cisplatin in patients with advanced cholangiocarcinoma with an &lt;i&gt;FGFR2&lt;/i&gt; gene fusion/rearrangement.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4171</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4171</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>University of California Davis Comprehensive Cancer Center, Sacramento, CA;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Columbia University Herbert Irving Comprehensive Cancer Center, New York, NY;; Department of Internal Medicine V (Hematology and Oncology), Medical University of Innsbruck, Comprehensive Cancer Center Innsbruck, Innsbruck, Austria;; University of Kansas Cancer Center, Westwood, KS;; Ruesch Center for the Cure of Gastrointestinal Cancers, Lombardi Comprehensive Cancer Center, Georgetown University Medical Center, Washington, DC;; Department of Hematology-Oncology, University of Alabama at Birmingham/O'Neal Comprehensive Cancer Center, Birmingham, AL;; University of Arizona Cancer Center, Tucson, AZ;; Caris Life Sciences, Phoenix, AZ;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Division of Medical Oncology, Keck School of Medicine, University of Southern California, Los Angeles, CA;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Masonic Cancer Center/ University of Minnesota School of Medicine, Minneapolis, MN;</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286298403</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>CXCR4 overexpression: An indicator of poor survival and predictor of response to immunotherapy in patients with metastatic colorectal cancer.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3546</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3546</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Division of Hematology/Oncology, Department of Medicine, University of Arizona Cancer Center, 1515 N. Campbell Avenue, Tucson, AZ 85724-5024, USA; Division of Hematology/Oncology, Department of Medicine, University of Arizona Cancer Center, 1515 N. Campbell Avenue, Tucson, AZ 85724-5024, USA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306662686</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Decision-Making Regarding Perioperative Therapy in Individuals with Localized Pancreatic Adenocarcinoma</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Hematology/Oncology Clinics of North America</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hoc.2022.07.003</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36265993</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hoc.2022.07.003</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Memorial Sloan Kettering Cancer Center.; Memorial Sloan Kettering Cancer Center.; University of Arizona.; University of Arizona.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293900874</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>COVID-19 Vaccines and Immunosuppressed Patients With Cancer: Critical Considerations</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Clinical Journal of Oncology Nursing</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Oncology Nursing Society</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1188/22.cjon.367-373</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35939727</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1188/22.cjon.367-373</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Cedars-Sinai Medical Center, Los Angeles, CA;; Perthera, Holliston, MA;; Cedars-Sinai Medical Center, Los Angeles, CA;; Cedars-Sinai Medical Center, Los Angeles, CA;; Cedars-Sinai Medical Center, Los Angeles, CA;; Cedars-Sinai Medical Center, Los Angeles, CA;; Johns Hopkins Hospital, Baltimore, MD;; UNC Lineberger Comprehensive Cancer Center, Chapel Hill, NC;; Montefiore Medical Center, Albert Einstein College of Medicine, Bronx, NY;; University of Arizona Cancer Center, Tucson, AZ;; Inova, Fairfax, VA;; Perthera, Holliston, MA;; Perthera, Holliston, MA;; Pancreatic Cancer Action Network, Manhattan Beach, CA;; Perthera, Holliston, MA;; Johns Hopkins University School of Medicine, Washington, DC;; Cedars-Sinai Medical Center, Los Angeles, CA;; Samuel Oschin Cancer Center, Cedars-Sinai Medical Center, Los Angeles, CA;; Samuel Oschin Cancer Center, Cedars-Sinai Medical Center, Los Angeles, CA;</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206272706</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Real-world clinical outcomes and molecular features of lung-specific and liver-specific metastases in pancreatic ductal adenocarcinoma (PDAC).</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.532</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.532</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,39 +1844,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Sylvester Comprehensive Cancer Center, University of Miami School of Medicine, Miami, FL;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Irving, TX;; University of Cincinnati Medical Center, Cincinnati, OH;; University of Texas MD Anderson Cancer Center, Houston, TX;; Georgetown University, Washington, DC;; University of Arizona Cancer Center, Tucson, AZ;; Caris Life Sciences, Phoenix, AZ;; Department of Surgery, Brody School of Medicine at East Carolina University, Greenville, NC;; Department of Surgery, Brody School of Medicine at East Carolina University, Greenville, NC;; University of Wisconsin Carbone Cancer Center, Madison, WI;; Division of Surgical Oncology and Endocrine Surgery, The University of North Carolina at Chapel Hill, Chapel Hill, NC;; Winship Cancer Institute, Emory University, Atlanta, GA;; Winship Cancer Institute, Division of Surgical Oncology, Department of Surgery, Emory University, Atlanta, GA;; Cincinnati College of Medicine, Cincinatti, OH;; University of Miami Sylvester Comprehensive Cancer Center, Miami, FL;; Sylvester Comprehensive Cancer Center, University of Miami School of Medicine, Miami, FL;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Sylvester Comprehensive Cancer Center, University of Miami School of Medicine, Miami, FL;</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206282630</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Multiomic characterization to reveal a distinct molecular landscape in young-onset pancreatic cancer.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.594</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1799,35 +1884,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.594</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,39 +1931,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; The Christie NHS Foundation Trust, Manchester, United Kingdom;</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206310649</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Natural history of patients with advanced cholangiocarcinoma and FGFR2 gene fusions/rearrangements.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1881,35 +1971,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,39 +2018,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Abington Jefferson Health, Abington, PA;; Thomas Jefferson University, Philadelphia, PA;; Sharp HealthCare, San Diego, CA;; Virginia Cancer Specialists, Fairfax, VA;; University of Arizona Cancer Center, Tucson, AZ;; UNC Lineberger Comprehensive Cancer Center, Chapel Hill, NC;; Montefiore Medical Center, Bronx, NY;; Johns Hopkins Kimmel Cancer Center, Baltimore, MD;; Samuel Oschin Cancer Center, Cedars-Sinai Medical Center, Los Angeles, CA;; Pancreatic Cancer Action Network, Manhattan Beach, CA;; Perthera, Holliston, MA;; Perthera, Holliston, MA;; Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Johns Hopkins Kimmel Cancer Center, Washington, DC;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206534180</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Association of pancreatic adenocarcinoma location (head/body/tail) with DDR mutation status and response to platinum-based therapy.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1963,35 +2058,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,39 +2105,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Mays Cancer Center, University of Texas Health San Antonio, San Antonio, TX;; Caris LIfe Sciences, Dallas, TX;; Caris Life Sciences, Irving, TX;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Internal Medicine V (Hematology and Oncology), Medical University of Innsbruck, Comprehensive Cancer Center Innsbruck, Innsbruck, Austria;; University of Miami Health System, Miami, FL;; Penn State Cancer Institute, Hershey, PA;; Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Kansas University Cancer Center, Kansas City, KS;; University of Arizona Cancer Center, Tucson, AZ;; Brown University, Providence, RI;; University of Texas Southwestern Medical Center, Dallas, TX;; Barbara Ann Karmanos Cancer Institute, Detroit, MI;; University of Cincinnati, Cincinnati, OH;; University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, CA;; University of Minnesota School of Medicine, Minneapolis, MN;; Caris Life Sciences, Phoenix, AZ;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Mays Cancer Center, UT Health San Antonio, San Antonio, TX;</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206738521</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Molecular profile of hepatocellular carcinoma (HCC) in older versus younger adults: Does age matter?</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2045,35 +2145,40 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Memorial Sloan Kettering Cancer Center, Weill Medical College at Cornell University, New York, United States; Cliniques Universitaires Saint-Luc, Brussels, Belgium; Massachusetts General Hospital Cancer Centre, Boston, United States; The Christie National Health Service Foundation Trust, Manchester, United Kingdom; Hospital Vall D’Hebron, Barcelona, Spain; Seoul National University College of Medicine, Seoul, South Korea; The Ohio State Comprehensive Cancer Center, Columbus, United States; David Geffen School of Medicine, University of California Los Angeles, Santa Monica, United States; University of Arizona Cancer Center, Tucson, United States; QED Therapeutics Inc., San Francisco, United States; Helsinn Healthcare SA, Lugano, Switzerland; Helsinn Healthcare SA, Lugano, Switzerland; QED Therapeutics Inc., San Francisco, United States; The University of Texas MD Anderson Cancer Center, Houston, United States</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283785090</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>P-16 PROOF 301: A multicenter, open-label, randomized, phase 3 trial of infigratinib vs gemcitabine + cisplatin in patients with advanced cholangiocarcinoma with an FGFR2 gene fusion/rearrangement</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Annals of Oncology</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,75 +2279,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285612570</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Cholangiocarcinoma: The Present and Future of Targeted Therapies</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Touch reviews in oncology &amp; haematology</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,39 +2366,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Ruesch Center for the Cure of Gastrointestinal Cancers, Lombardi Comprehensive Cancer Center, Georgetown University Medical Center, Washington, DC;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati, Cincinnati, OH;; Masonic Cancer Center/ University of Minnesota School of Medicine, Minneapolis, MN;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Medicine, West Virginia University, Morgantown, WV;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286295671</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;i&gt;DEFB1&lt;/i&gt; gene expression and the molecular landscape of colorectal cancer (CRC).</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2291,35 +2406,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,39 +2453,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Georgetown University Medical Center, Washington, DC;; Roswell Park Comprehensive Cancer Center, Buffalo, NY;; Roswell park Comprehensive Cancer Center, Buffalo, NY;; Vanderbilt-Ingram Cancer Center, Nashville, TN;; Vanderbilt University Medical Center, Nashville, TN;; Moffitt Cancer Center, Tampa, FL;; H. Lee Moffitt Cancer Center &amp; Research Institute, Tampa, FL;; Mayo Clinic, Jacksonville, FL;; Yale School of Medicine, New Haven, CT;; University of Maryland, Baltimore, MD;; Boston Medical Center, Boston University School of Medicine, Boston, MA;; Boston Medical Center, Boston, MA;; Georgetown University Hospital, Washington, DC;; Department of Radiology and Imaging Sciences, Indiana University University School of Medicine, Indianapolis, IN;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286297219</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>An open-label, multicenter, randomized phase II study of atezolizumab and bevacizumab with Y90 TARE in patients with unresectable hepatocellular carcinoma (HCC).</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2373,35 +2493,40 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,75 +2540,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Department of Medical Oncology, The University of Manchester, Manchester, UK; Medical Oncology, UCL Cancer Institute, London, UK; Department of Medical Oncology, Massachusetts General Hospital Cancer Center, Boston, Massachusetts, USA; Medical Library, The Christie NHS Foundation Trust, Manchester, UK; Department of Medical Oncology, Centre Hospitalier Universitaire Vaudois, Lausanne, Switzerland; Department of Medical Oncology, University of New South Wales, Sydney, New South Wales, Australia; Medical Oncology, The University of Arizona Cancer Center—North Campus, Tucson, Arizona, USA; Department of Medical Oncology, Universitatsmedizin der Johannes Gutenberg-Universitat Mainz, Mainz, Rheinland-Pfalz, Germany; Department of Medical Oncology, TCD, Dublin, Ireland; Medical Oncology, Mayo Clinic Cancer Center, Scottsdale, AZ, USA; Department of Medical Oncology, University of California San Francisco, San Francisco, California, USA; Kyorin University Faculty of Medicine, Tokyo, Japan; Department of Medical Oncology, Humanitas Cancer Center, Humanitas University, Milan, Italy; Humanitas Cancer Center, IRCCS Humanitas Research Hospital, 20089 Rozzano, Milan, Italy; Medical Oncology, National Cancer Center Hospital, Tokyo, Japan; Medical Oncology, The Christie NHS Foundation Trust, Manchester, Manchester, UK; Medical Oncology, The Christie NHS Foundation Trust, Manchester, Manchester, UK; Princess Margaret Hospital Cancer Centre, Toronto, Ontario, Canada; Department of Medical Oncology, The University of Manchester, Manchester, UK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307304095</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>What is the gender representation in authorship in later phase systemic clinical trials in biliary tract cancer (BTC)? - a retrospective review of the published literature</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>BMJ Open</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjopen-2022-064954</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36288834</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjopen-2022-064954</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Rachna Shroff_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Rachna Shroff_2022.xlsx
@@ -492,12 +492,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>68</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aaron Shengting, Ainsley Ryan Yan Bin Lee, Ryan Yong Kiat Tay, Lauren C Shapiro, Astha Thakkar, Balázs Halmos, Albert Grinshpun, Yair Herishanu, Ohad Benjamini, Tamar Tadmor, Rachna T. Shroff, Bonnie LaFleur, Deepta Bhattacharya, Siyu Peng, Jeremy Tey, Soo Chin Lee, Louis Yi Ann Chai, Yu Yang Soon, Raghav Sundar, Matilda Xinwei Lee</t>
+          <t>Aaron Shengting, Ainsley Ryan Yan Bin Lee, Ryan Yong Kiat Tay, Lauren C. Shapiro, Astha Thakkar, Balázs Halmos, Albert Grinshpun, Yair Herishanu, Ohad Benjamini, Tamar Tadmor, Rachna T. Shroff, Bonnie LaFleur, Deepta Bhattacharya, Siyu Peng, Jeremy Tey, Soo Chin Lee, Louis Yi Ann Chai, Yu Yang Soon, Raghav Sundar, Matilda Xinwei Lee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1056,47 +1056,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nishant Munugala, Shishir K. Maithel, Rachna T. Shroff</t>
+          <t>Jill Koshiol, Binbing Yu, Shaum Kabadi, Katherine Baria, Rachna T. Shroff</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Surgical Oncology, Emory University, Winship Cancer Institute, Atlanta, GA, USA; Division of Hematology and Oncology, Department of GI Medical Oncology, University of Arizona Cancer Center, Tucson, AZ, USA</t>
+          <t>Division of Cancer Epidemiology and Genetics, National Cancer Institute, Bethesda, USA; Oncology Biometrics, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Medical Affairs Epidemiology and Real-World Evidence, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Global Medical Affairs, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3047067645</t>
+          <t>https://openalex.org/W4309321996</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Novel biomarkers and the future of targeted therapies in cholangiocarcinoma: a narrative review</t>
+          <t>Epidemiologic patterns of biliary tract cancer in the United States: 2001–2015</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hepatobiliary surgery and nutrition</t>
+          <t>BMC Cancer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AME Publishing Company</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21037/hbsn-20-475</t>
+          <t>https://doi.org/10.1186/s12885-022-10286-z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35464290</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36384474</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21037/hbsn-20-475</t>
+          <t>https://doi.org/10.1186/s12885-022-10286-z</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,47 +1143,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jill Koshiol, Binbing Yu, Shaum Kabadi, Katherine Baria, Rachna T. Shroff</t>
+          <t>Nishant Munugala, Shishir K. Maithel, Rachna T. Shroff</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Division of Cancer Epidemiology and Genetics, National Cancer Institute, Bethesda, USA; Oncology Biometrics, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Medical Affairs Epidemiology and Real-World Evidence, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Global Medical Affairs, AstraZeneca Pharmaceuticals, Gaithersburg, USA; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Surgical Oncology, Emory University, Winship Cancer Institute, Atlanta, GA, USA; Division of Hematology and Oncology, Department of GI Medical Oncology, University of Arizona Cancer Center, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4309321996</t>
+          <t>https://openalex.org/W3047067645</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Epidemiologic patterns of biliary tract cancer in the United States: 2001–2015</t>
+          <t>Novel biomarkers and the future of targeted therapies in cholangiocarcinoma: a narrative review</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BMC Cancer</t>
+          <t>Hepatobiliary surgery and nutrition</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>AME Publishing Company</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12885-022-10286-z</t>
+          <t>https://doi.org/10.21037/hbsn-20-475</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36384474</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35464290</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12885-022-10286-z</t>
+          <t>https://doi.org/10.21037/hbsn-20-475</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Morten Lapin, Helen J. Huang, Sharmeen Chagani, Milind Javle, Rachna T. Shroff, Shubham Pant, Mohamed A. Gouda, Anjali Raina, Kiran Madwani, Veronica R. Holley, S. Greg Call, Derek Dustin, Richard B. Lanman, Funda Meric‐Bernstam, Victoria M. Raymond, Lawrence N. Kwong, Filip Jankú</t>
+          <t>Morten Lapin, Helen J. Huang, Sharmeen Chagani, Milind Javle, Rachna T. Shroff, Shubham Pant, Mohamed A. Gouda, Anjali Raina, Kiran Madwani, Veronica R. Holley, S. Greg Call, Derek Dustin, Richard B. Lanman, Funda Meric‐Bernstam, Victoria M. Raymond, Lawrence N. Kwong, Filip Janků</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rachna T. Shroff, Francesca Avogadri, Richard Weng, Li Ai, Carl L. Dambkowski, Ángela Lamarca</t>
+          <t>Ida Micaily, Edik M. Blais, Steven J. Cohen, Shawnna Cannaday, Geoffrey W. Krampitz, Raymond Wadlow, Rachna T. Shroff, Autumn J. McRee, Jennifer Chuy, Lei Zheng, Andrew Eugene Hendifar, Lynn M. Matrisian, Gary Gregory, Dzung Thach, Jonathan R. Brody, Emanuel F. Petricoin, Michael J. Pishvaian, Harish Lavu, Charles J. Yeo, Atrayee Basu Mallick</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>University of Arizona Cancer Center, Tucson, AZ;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; The Christie NHS Foundation Trust, Manchester, United Kingdom;</t>
+          <t>Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Abington Jefferson Health, Abington, PA;; Thomas Jefferson University, Philadelphia, PA;; Sharp HealthCare, San Diego, CA;; Virginia Cancer Specialists, Fairfax, VA;; University of Arizona Cancer Center, Tucson, AZ;; UNC Lineberger Comprehensive Cancer Center, Chapel Hill, NC;; Montefiore Medical Center, Bronx, NY;; Johns Hopkins Kimmel Cancer Center, Baltimore, MD;; Samuel Oschin Cancer Center, Cedars-Sinai Medical Center, Los Angeles, CA;; Pancreatic Cancer Action Network, Manhattan Beach, CA;; Perthera, Holliston, MA;; Perthera, Holliston, MA;; Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Johns Hopkins Kimmel Cancer Center, Washington, DC;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206310649</t>
+          <t>https://openalex.org/W4206534180</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Natural history of patients with advanced cholangiocarcinoma and FGFR2 gene fusions/rearrangements.</t>
+          <t>Association of pancreatic adenocarcinoma location (head/body/tail) with DDR mutation status and response to platinum-based therapy.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,22 +2013,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ida Micaily, Edik M. Blais, Steven J. Cohen, Shawnna Cannaday, Geoffrey W. Krampitz, Raymond Wadlow, Rachna T. Shroff, Autumn J. McRee, Jennifer Chuy, Lei Zheng, Andrew Eugene Hendifar, Lynn M. Matrisian, Gary Gregory, Dzung Thach, Jonathan R. Brody, Emanuel F. Petricoin, Michael J. Pishvaian, Harish Lavu, Charles J. Yeo, Atrayee Basu Mallick</t>
+          <t>Sukeshi Patel Arora, Nishant Gandhi, Phillip Walker, Anthony F. Shields, Andreas Seeber, Gilberto Lopes, Nelson S. Yee, Aiwu Ruth He, Anwaar Saeed, Rachna T. Shroff, Wafik S. El‐Deiry, David Hsieh, Philip A. Philip, Davendra Sohal, Anthony B. El-Khoueiry, Emil Lou, David Spetzler, John L. Marshall, W. Michael Korn, Vikram Kapoor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Abington Jefferson Health, Abington, PA;; Thomas Jefferson University, Philadelphia, PA;; Sharp HealthCare, San Diego, CA;; Virginia Cancer Specialists, Fairfax, VA;; University of Arizona Cancer Center, Tucson, AZ;; UNC Lineberger Comprehensive Cancer Center, Chapel Hill, NC;; Montefiore Medical Center, Bronx, NY;; Johns Hopkins Kimmel Cancer Center, Baltimore, MD;; Samuel Oschin Cancer Center, Cedars-Sinai Medical Center, Los Angeles, CA;; Pancreatic Cancer Action Network, Manhattan Beach, CA;; Perthera, Holliston, MA;; Perthera, Holliston, MA;; Thomas Jefferson University, Philadelphia, PA;; Perthera, Holliston, MA;; Johns Hopkins Kimmel Cancer Center, Washington, DC;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;; Thomas Jefferson University, Philadelphia, PA;</t>
+          <t>Mays Cancer Center, University of Texas Health San Antonio, San Antonio, TX;; Caris LIfe Sciences, Dallas, TX;; Caris Life Sciences, Irving, TX;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Internal Medicine V (Hematology and Oncology), Medical University of Innsbruck, Comprehensive Cancer Center Innsbruck, Innsbruck, Austria;; University of Miami Health System, Miami, FL;; Penn State Cancer Institute, Hershey, PA;; Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Kansas University Cancer Center, Kansas City, KS;; University of Arizona Cancer Center, Tucson, AZ;; Brown University, Providence, RI;; University of Texas Southwestern Medical Center, Dallas, TX;; Barbara Ann Karmanos Cancer Institute, Detroit, MI;; University of Cincinnati, Cincinnati, OH;; University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, CA;; University of Minnesota School of Medicine, Minneapolis, MN;; Caris Life Sciences, Phoenix, AZ;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Mays Cancer Center, UT Health San Antonio, San Antonio, TX;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206534180</t>
+          <t>https://openalex.org/W4206738521</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Association of pancreatic adenocarcinoma location (head/body/tail) with DDR mutation status and response to platinum-based therapy.</t>
+          <t>Molecular profile of hepatocellular carcinoma (HCC) in older versus younger adults: Does age matter?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.612</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,57 +2100,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sukeshi Patel Arora, Nishant Gandhi, Phillip Walker, Anthony F. Shields, Andreas Seeber, Gilberto Lopes, Nelson S. Yee, Aiwu Ruth He, Anwaar Saeed, Rachna T. Shroff, Wafik S. El‐Deiry, David Hsieh, Philip A. Philip, Davendra Sohal, Anthony B. El-Khoueiry, Emil Lou, David Spetzler, John L. Marshall, W. Michael Korn, Vikram Kapoor</t>
+          <t>G. K. Abou-Alfa, Ivan Borbath, Lipika Goyal, Ángela Lamarca, Teresa Macarulla, Dong Yoon Oh, Sameek Roychowdhury, Samuel S. Sadeghi, Rachna T. Shroff, Jose Soto, G. Pedrioli, L. Fumagalli, Carl L. Dambkowski, Milind Javle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mays Cancer Center, University of Texas Health San Antonio, San Antonio, TX;; Caris LIfe Sciences, Dallas, TX;; Caris Life Sciences, Irving, TX;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Internal Medicine V (Hematology and Oncology), Medical University of Innsbruck, Comprehensive Cancer Center Innsbruck, Innsbruck, Austria;; University of Miami Health System, Miami, FL;; Penn State Cancer Institute, Hershey, PA;; Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Kansas University Cancer Center, Kansas City, KS;; University of Arizona Cancer Center, Tucson, AZ;; Brown University, Providence, RI;; University of Texas Southwestern Medical Center, Dallas, TX;; Barbara Ann Karmanos Cancer Institute, Detroit, MI;; University of Cincinnati, Cincinnati, OH;; University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, CA;; University of Minnesota School of Medicine, Minneapolis, MN;; Caris Life Sciences, Phoenix, AZ;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Mays Cancer Center, UT Health San Antonio, San Antonio, TX;</t>
+          <t>Memorial Sloan Kettering Cancer Center, Weill Medical College at Cornell University, New York, United States; Cliniques Universitaires Saint-Luc, Brussels, Belgium; Massachusetts General Hospital Cancer Centre, Boston, United States; The Christie National Health Service Foundation Trust, Manchester, United Kingdom; Hospital Vall D’Hebron, Barcelona, Spain; Seoul National University College of Medicine, Seoul, South Korea; The Ohio State Comprehensive Cancer Center, Columbus, United States; David Geffen School of Medicine, University of California Los Angeles, Santa Monica, United States; University of Arizona Cancer Center, Tucson, United States; QED Therapeutics Inc., San Francisco, United States; Helsinn Healthcare SA, Lugano, Switzerland; Helsinn Healthcare SA, Lugano, Switzerland; QED Therapeutics Inc., San Francisco, United States; The University of Texas MD Anderson Cancer Center, Houston, United States</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206738521</t>
+          <t>https://openalex.org/W4283785090</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Molecular profile of hepatocellular carcinoma (HCC) in older versus younger adults: Does age matter?</t>
+          <t>P-16 PROOF 301: A multicenter, open-label, randomized, phase 3 trial of infigratinib vs gemcitabine + cisplatin in patients with advanced cholangiocarcinoma with an FGFR2 gene fusion/rearrangement</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
+          <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publisher-specific-oa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.477</t>
+          <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,47 +2187,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G. K. Abou-Alfa, Ivan Borbath, Lipika Goyal, Ángela Lamarca, Teresa Macarulla, Dong Yoon Oh, Sameek Roychowdhury, Samuel S. Sadeghi, Rachna T. Shroff, Jose Soto, G. Pedrioli, L. Fumagalli, Carl L. Dambkowski, Milind Javle</t>
+          <t>Aparna Kalyan, Rachna T. Shroff</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Memorial Sloan Kettering Cancer Center, Weill Medical College at Cornell University, New York, United States; Cliniques Universitaires Saint-Luc, Brussels, Belgium; Massachusetts General Hospital Cancer Centre, Boston, United States; The Christie National Health Service Foundation Trust, Manchester, United Kingdom; Hospital Vall D’Hebron, Barcelona, Spain; Seoul National University College of Medicine, Seoul, South Korea; The Ohio State Comprehensive Cancer Center, Columbus, United States; David Geffen School of Medicine, University of California Los Angeles, Santa Monica, United States; University of Arizona Cancer Center, Tucson, United States; QED Therapeutics Inc., San Francisco, United States; Helsinn Healthcare SA, Lugano, Switzerland; Helsinn Healthcare SA, Lugano, Switzerland; QED Therapeutics Inc., San Francisco, United States; The University of Texas MD Anderson Cancer Center, Houston, United States</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283785090</t>
+          <t>https://openalex.org/W4285612570</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P-16 PROOF 301: A multicenter, open-label, randomized, phase 3 trial of infigratinib vs gemcitabine + cisplatin in patients with advanced cholangiocarcinoma with an FGFR2 gene fusion/rearrangement</t>
+          <t>Cholangiocarcinoma: The Present and Future of Targeted Therapies</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>Touch reviews in oncology &amp; haematology</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
+          <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>publisher-specific-oa</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2022.04.107</t>
+          <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,57 +2274,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aparna Kalyan, Rachna T. Shroff</t>
+          <t>Jae Ho Lo, Francesca Battaglin, Yasmine Baca, Joanne Xiu, Pavel Brodskiy, Sandra Algaze, Priya Jayachandran, Hiroyuki Arai, Wu Zhang, Benjamin A. Weinberg, Rachna T. Shroff, Davendra Sohal, Emil Lou, Anthony F. Shields, Richard M. Goldberg, John L. Marshall, W. Michael Korn, Shivani Soni, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t>Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Ruesch Center for the Cure of Gastrointestinal Cancers, Lombardi Comprehensive Cancer Center, Georgetown University Medical Center, Washington, DC;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati, Cincinnati, OH;; Masonic Cancer Center/ University of Minnesota School of Medicine, Minneapolis, MN;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Medicine, West Virginia University, Morgantown, WV;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285612570</t>
+          <t>https://openalex.org/W4286295671</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cholangiocarcinoma: The Present and Future of Targeted Therapies</t>
+          <t>&lt;i&gt;DEFB1&lt;/i&gt; gene expression and the molecular landscape of colorectal cancer (CRC).</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Touch reviews in oncology &amp; haematology</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
+          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17925/ohr.2022.18.1.9</t>
+          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,22 +2361,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jae Ho Lo, Francesca Battaglin, Yasmine Baca, Joanne Xiu, Pavel Brodskiy, Sandra Algaze, Priya Jayachandran, Hiroyuki Arai, Wu Zhang, Benjamin A. Weinberg, Rachna T. Shroff, Davendra Sohal, Emil Lou, Anthony F. Shields, Richard M. Goldberg, John L. Marshall, W. Michael Korn, Shivani Soni, Heinz‐Josef Lenz</t>
+          <t>Aiwu Ruth He, Filip Banovac, Renuka Iyer, Michael Petroziello, Daniel W. Brown, Laura Williams Goff, Richard D. Kim, Nainesh Parikh, Beau B. Toskich, Kevin Kim, Yixing Jiang, Suvranu Ganguli, Matthew H. Kulke, Samantha Armstrong, Matthew S. Johnson, Rachna T. Shroff, Gregory Woodhead</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Ruesch Center for the Cure of Gastrointestinal Cancers, Lombardi Comprehensive Cancer Center, Georgetown University Medical Center, Washington, DC;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati, Cincinnati, OH;; Masonic Cancer Center/ University of Minnesota School of Medicine, Minneapolis, MN;; Karmanos Cancer Institute, Wayne State University, Detroit, MI;; Department of Medicine, West Virginia University, Morgantown, WV;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;</t>
+          <t>Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Georgetown University Medical Center, Washington, DC;; Roswell Park Comprehensive Cancer Center, Buffalo, NY;; Roswell park Comprehensive Cancer Center, Buffalo, NY;; Vanderbilt-Ingram Cancer Center, Nashville, TN;; Vanderbilt University Medical Center, Nashville, TN;; Moffitt Cancer Center, Tampa, FL;; H. Lee Moffitt Cancer Center &amp; Research Institute, Tampa, FL;; Mayo Clinic, Jacksonville, FL;; Yale School of Medicine, New Haven, CT;; University of Maryland, Baltimore, MD;; Boston Medical Center, Boston University School of Medicine, Boston, MA;; Boston Medical Center, Boston, MA;; Georgetown University Hospital, Washington, DC;; Department of Radiology and Imaging Sciences, Indiana University University School of Medicine, Indianapolis, IN;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286295671</t>
+          <t>https://openalex.org/W4286297219</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;i&gt;DEFB1&lt;/i&gt; gene expression and the molecular landscape of colorectal cancer (CRC).</t>
+          <t>An open-label, multicenter, randomized phase II study of atezolizumab and bevacizumab with Y90 TARE in patients with unresectable hepatocellular carcinoma (HCC).</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
+          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3523</t>
+          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,27 +2448,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aiwu Ruth He, Filip Banovac, Renuka Iyer, Michael Petroziello, Daniel W. Brown, Laura Williams Goff, Richard D. Kim, Nainesh Parikh, Beau B. Toskich, Kevin Kim, Yixing Jiang, Suvranu Ganguli, Matthew H. Kulke, Samantha Armstrong, Matthew S. Johnson, Rachna T. Shroff, Gregory Woodhead</t>
+          <t>Rachna T. Shroff, Francesca Avogadri, Richard Weng, Li Ai, Carl L. Dambkowski, Ángela Lamarca</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Georgetown University Lombardi Comprehensive Cancer Center, Washington, DC;; Georgetown University Medical Center, Washington, DC;; Roswell Park Comprehensive Cancer Center, Buffalo, NY;; Roswell park Comprehensive Cancer Center, Buffalo, NY;; Vanderbilt-Ingram Cancer Center, Nashville, TN;; Vanderbilt University Medical Center, Nashville, TN;; Moffitt Cancer Center, Tampa, FL;; H. Lee Moffitt Cancer Center &amp; Research Institute, Tampa, FL;; Mayo Clinic, Jacksonville, FL;; Yale School of Medicine, New Haven, CT;; University of Maryland, Baltimore, MD;; Boston Medical Center, Boston University School of Medicine, Boston, MA;; Boston Medical Center, Boston, MA;; Georgetown University Hospital, Washington, DC;; Department of Radiology and Imaging Sciences, Indiana University University School of Medicine, Indianapolis, IN;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; QED Therapeutics Inc., San Francisco, CA;; The Christie NHS Foundation Trust, Manchester, United Kingdom;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286297219</t>
+          <t>https://openalex.org/W4206310649</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>An open-label, multicenter, randomized phase II study of atezolizumab and bevacizumab with Y90 TARE in patients with unresectable hepatocellular carcinoma (HCC).</t>
+          <t>Natural history of patients with advanced cholangiocarcinoma and FGFR2 gene fusions/rearrangements.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2022.40.16_suppl.tps4177</t>
+          <t>https://doi.org/10.1200/jco.2022.40.4_suppl.391</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
